--- a/input/test_scenario/output/MatrixModel_5.xlsx
+++ b/input/test_scenario/output/MatrixModel_5.xlsx
@@ -163,7 +163,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="n">
-        <v>3.95</v>
+        <v>3.25</v>
       </c>
     </row>
   </sheetData>
@@ -227,17 +227,17 @@
         <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>0.225</v>
+        <v>0.25</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="n">
-        <v>0.175</v>
+        <v>0.25</v>
       </c>
       <c r="F3" t="n">
-        <v>0.175</v>
+        <v>0.25</v>
       </c>
       <c r="G3" t="n">
-        <v>0.425</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4">
@@ -340,13 +340,13 @@
       </c>
       <c r="D3"/>
       <c r="E3" t="n">
-        <v>0.375</v>
+        <v>0.25</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G3" t="n">
-        <v>0.175</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4">
@@ -371,11 +371,11 @@
       </c>
       <c r="C5"/>
       <c r="D5" t="n">
-        <v>0.425</v>
+        <v>0.5</v>
       </c>
       <c r="E5"/>
       <c r="F5" t="n">
-        <v>0.575</v>
+        <v>0.5</v>
       </c>
       <c r="G5"/>
     </row>
@@ -451,10 +451,10 @@
       <c r="C3"/>
       <c r="D3"/>
       <c r="E3" t="n">
-        <v>0.525</v>
+        <v>0.5</v>
       </c>
       <c r="F3" t="n">
-        <v>0.475</v>
+        <v>0.5</v>
       </c>
       <c r="G3"/>
     </row>
@@ -467,12 +467,12 @@
       </c>
       <c r="C4"/>
       <c r="D4" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5">
@@ -484,16 +484,16 @@
       </c>
       <c r="C5"/>
       <c r="D5" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="E5" t="n">
         <v>0.25</v>
       </c>
       <c r="F5" t="n">
-        <v>0.175</v>
+        <v>0.25</v>
       </c>
       <c r="G5" t="n">
-        <v>0.175</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="6">
@@ -505,12 +505,12 @@
       </c>
       <c r="C6"/>
       <c r="D6" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
